--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.40</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>31.06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>31.06</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005901</t>
+          <t>398041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合A</t>
+          <t>中海量化策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005902</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398041</t>
+          <t>005901</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海量化策略混合</t>
+          <t>诺安汇利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>005902</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>诺安汇利灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,588 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1805,4 +1806,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1814,7 +1815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1825,17 +1826,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1845,14 +1866,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1861,14 +1904,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1877,14 +1942,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.45</v>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1893,13 +1980,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2251,7 +2252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2262,17 +2263,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2282,14 +2303,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2298,14 +2341,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2314,14 +2379,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -2330,14 +2501,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -2346,13 +2517,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398041</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海量化策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2422</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2128</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1258</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="D5" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398041</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海量化策略混合</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>99.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2262</t>
+          <t>0.1212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>012245</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>86.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1336</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -829,112 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>399001</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海上证50指数增强</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>86.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0819</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>44.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>44.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1009,26 +819,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>85.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2840</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1037,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010764</t>
+          <t>002411</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰锐升18个月封闭运作混合</t>
+          <t>华夏新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.80</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1810</t>
+          <t>0.0992</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1075,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009531</t>
+          <t>450008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰锐和18个月定期开放混合</t>
+          <t>国富沪深300指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.60</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1170</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1113,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399001</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海上证50指数增强</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0930</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1151,32 +961,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005901</t>
+          <t>008212</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合A</t>
+          <t>华夏新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>55.60</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1189,36 +999,188 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005902</t>
+          <t>162214</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合C</t>
+          <t>泰达宏利领先中小盘混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55.60</t>
+          <t>86.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,7 +1799,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1877,26 +1839,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1122</t>
+          <t>0.2840</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1905,36 +1867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002411</t>
+          <t>010764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合A</t>
+          <t>九泰锐升18个月封闭运作混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>78.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0992</t>
+          <t>0.1810</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1943,36 +1905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>450008</t>
+          <t>009531</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富沪深300指数增强</t>
+          <t>九泰锐和18个月定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>67.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.1170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1981,36 +1943,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>399001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>中海上证50指数增强</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.0930</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2019,32 +1981,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008212</t>
+          <t>005901</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合C</t>
+          <t>诺安汇利灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>55.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2057,188 +2019,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162214</t>
+          <t>005902</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利领先中小盘混合</t>
+          <t>诺安汇利灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>55.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004900</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>22.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004901</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +2062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2273,7 +2083,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2303,36 +2113,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>398041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>中海量化策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.10</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1212</t>
+          <t>0.2262</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2341,36 +2151,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012245</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.20</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.1336</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2379,36 +2189,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>399001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>中海上证50指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.20</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0819</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2422,128 +2308,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.68</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.59</v>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1772,7 +2073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2056,7 +2357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601878-浙商证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2073,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2357,7 +2582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2603,7 +2828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
